--- a/Wm_Api/caseData/ApiInfo.xlsx
+++ b/Wm_Api/caseData/ApiInfo.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18625"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WorkSpace\Wm_Project\Wm_Api\caseData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WorkSpace\StudyPractice\Wm_Api\caseData\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="95">
   <si>
     <t>CaseName</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -346,6 +346,46 @@
  "quantity":2,
  "customerId":4282
 }</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/v1/cart/list</t>
+  </si>
+  <si>
+    <t>{  "customerId":4282}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>购物车--列表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/v1/cart/update</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>购物车-更新</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/v1/order/init</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>订单--初始化</t>
+  </si>
+  <si>
+    <t>{
+  "id": 1007912,
+  "price": 1607,
+  "quantity":2
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+  "customerId":4282,
+  "cartIds":[1007912]}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1087,8 +1127,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1097,8 +1137,8 @@
     <col min="3" max="3" width="27" customWidth="1"/>
     <col min="4" max="4" width="52.875" customWidth="1"/>
     <col min="5" max="5" width="14.125" customWidth="1"/>
-    <col min="6" max="6" width="56.625" customWidth="1"/>
-    <col min="7" max="7" width="22.75" customWidth="1"/>
+    <col min="6" max="6" width="19.875" customWidth="1"/>
+    <col min="7" max="7" width="7.875" customWidth="1"/>
     <col min="8" max="8" width="22" customWidth="1"/>
     <col min="9" max="9" width="14.75" customWidth="1"/>
   </cols>
@@ -1135,7 +1175,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>53</v>
       </c>
@@ -1314,37 +1354,82 @@
         <v>57</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>69</v>
       </c>
+      <c r="B9" t="s">
+        <v>88</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>86</v>
+      </c>
       <c r="D9" t="s">
         <v>62</v>
       </c>
       <c r="E9" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="F9" t="s">
+        <v>87</v>
+      </c>
+      <c r="G9" t="s">
+        <v>20</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="71.25" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>70</v>
       </c>
+      <c r="B10" t="s">
+        <v>90</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>89</v>
+      </c>
       <c r="D10" t="s">
         <v>62</v>
       </c>
       <c r="E10" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="F10" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="G10" t="s">
+        <v>20</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>71</v>
       </c>
+      <c r="B11" t="s">
+        <v>92</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>91</v>
+      </c>
       <c r="D11" t="s">
         <v>62</v>
       </c>
       <c r="E11" t="s">
         <v>16</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="G11" t="s">
+        <v>20</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">

--- a/Wm_Api/caseData/ApiInfo.xlsx
+++ b/Wm_Api/caseData/ApiInfo.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18625"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -9,12 +9,14 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12120" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12120" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Login" sheetId="1" r:id="rId1"/>
     <sheet name="ComPrice" sheetId="2" r:id="rId2"/>
     <sheet name="Special" sheetId="3" r:id="rId3"/>
+    <sheet name="SpecialCart" sheetId="4" r:id="rId4"/>
+    <sheet name="SpecialOrder" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="115">
   <si>
     <t>CaseName</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -281,24 +283,6 @@
   </si>
   <si>
     <t>TPY_006</t>
-  </si>
-  <si>
-    <t>TPY_007</t>
-  </si>
-  <si>
-    <t>TPY_008</t>
-  </si>
-  <si>
-    <t>TPY_009</t>
-  </si>
-  <si>
-    <t>TPY_010</t>
-  </si>
-  <si>
-    <t>TPY_011</t>
-  </si>
-  <si>
-    <t>TPY_012</t>
   </si>
   <si>
     <t>商品列表</t>
@@ -372,11 +356,38 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>订单--初始化</t>
+    <t>/v1/order/init_order_list</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>订单--初始化结果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TPYGWC_001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TPYGWC_002</t>
+  </si>
+  <si>
+    <t>TPYGWC_003</t>
+  </si>
+  <si>
+    <t>TPYGWC_004</t>
+  </si>
+  <si>
+    <t>TPYGWC_005</t>
   </si>
   <si>
     <t>{
-  "id": 1007912,
+  "customerId":4282,
+  "cartIds":" "}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+  "id":" ",
   "price": 1607,
   "quantity":2
 }</t>
@@ -384,8 +395,88 @@
   </si>
   <si>
     <t>{
-  "customerId":4282,
-  "cartIds":[1007912]}</t>
+  "orderIds":" "
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>购物车--删除</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/v1/cart/delete_list</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+  "idList":" "
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>订单--初始化</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/v1/order/submit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+ "orderIds":" ",
+  "tips":"postman test runner script",
+  "deliveryType":1,
+  "receiveMoneyType":1,
+  "invoiceType":1
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>订单--提交</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TPYOrder_001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TPYOrder_002</t>
+  </si>
+  <si>
+    <t>TPYOrder_003</t>
+  </si>
+  <si>
+    <t>TPYOrder_004</t>
+  </si>
+  <si>
+    <t>TPYOrder_005</t>
+  </si>
+  <si>
+    <t>TPYOrder_006</t>
+  </si>
+  <si>
+    <t>TPYOrder_007</t>
+  </si>
+  <si>
+    <t>订单--列表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/v1/order/list</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/v1/order/find_one</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>订单--详情</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+  "orderId":" "
+}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1125,10 +1216,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J13"/>
+  <dimension ref="A1:J8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1175,7 +1266,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" ht="128.25" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>53</v>
       </c>
@@ -1214,9 +1305,6 @@
       <c r="E3" t="s">
         <v>16</v>
       </c>
-      <c r="F3" t="s">
-        <v>63</v>
-      </c>
       <c r="G3" t="s">
         <v>20</v>
       </c>
@@ -1229,10 +1317,10 @@
         <v>64</v>
       </c>
       <c r="B4" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="C4" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="D4" t="s">
         <v>62</v>
@@ -1255,10 +1343,10 @@
         <v>65</v>
       </c>
       <c r="B5" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="D5" t="s">
         <v>62</v>
@@ -1267,7 +1355,7 @@
         <v>16</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="G5" t="s">
         <v>20</v>
@@ -1281,10 +1369,10 @@
         <v>66</v>
       </c>
       <c r="B6" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="D6" t="s">
         <v>62</v>
@@ -1307,10 +1395,10 @@
         <v>67</v>
       </c>
       <c r="B7" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="D7" t="s">
         <v>62</v>
@@ -1330,13 +1418,13 @@
     </row>
     <row r="8" spans="1:10" ht="85.5" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>68</v>
+        <v>88</v>
       </c>
       <c r="B8" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="D8" t="s">
         <v>62</v>
@@ -1345,113 +1433,13 @@
         <v>16</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="G8" t="s">
         <v>20</v>
       </c>
       <c r="H8" s="1" t="s">
         <v>57</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>69</v>
-      </c>
-      <c r="B9" t="s">
-        <v>88</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="D9" t="s">
-        <v>62</v>
-      </c>
-      <c r="E9" t="s">
-        <v>16</v>
-      </c>
-      <c r="F9" t="s">
-        <v>87</v>
-      </c>
-      <c r="G9" t="s">
-        <v>20</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" ht="71.25" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>70</v>
-      </c>
-      <c r="B10" t="s">
-        <v>90</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="D10" t="s">
-        <v>62</v>
-      </c>
-      <c r="E10" t="s">
-        <v>16</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="G10" t="s">
-        <v>20</v>
-      </c>
-      <c r="H10" s="1" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>71</v>
-      </c>
-      <c r="B11" t="s">
-        <v>92</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="D11" t="s">
-        <v>62</v>
-      </c>
-      <c r="E11" t="s">
-        <v>16</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="G11" t="s">
-        <v>20</v>
-      </c>
-      <c r="H11" s="1" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>72</v>
-      </c>
-      <c r="D12" t="s">
-        <v>62</v>
-      </c>
-      <c r="E12" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>73</v>
-      </c>
-      <c r="D13" t="s">
-        <v>62</v>
-      </c>
-      <c r="E13" t="s">
-        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -1459,4 +1447,409 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:XFD3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="13.375" customWidth="1"/>
+    <col min="2" max="2" width="19.625" customWidth="1"/>
+    <col min="3" max="3" width="22.375" customWidth="1"/>
+    <col min="4" max="4" width="41.375" customWidth="1"/>
+    <col min="6" max="6" width="27.375" customWidth="1"/>
+    <col min="8" max="8" width="28.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>61</v>
+      </c>
+      <c r="E1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I1" t="s">
+        <v>4</v>
+      </c>
+      <c r="J1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="85.5" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>88</v>
+      </c>
+      <c r="B2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="D2" t="s">
+        <v>62</v>
+      </c>
+      <c r="E2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="G2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>89</v>
+      </c>
+      <c r="B3" t="s">
+        <v>82</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="D3" t="s">
+        <v>62</v>
+      </c>
+      <c r="E3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F3" t="s">
+        <v>81</v>
+      </c>
+      <c r="G3" t="s">
+        <v>20</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="71.25" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>90</v>
+      </c>
+      <c r="B4" t="s">
+        <v>84</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="D4" t="s">
+        <v>62</v>
+      </c>
+      <c r="E4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="G4" t="s">
+        <v>20</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>91</v>
+      </c>
+      <c r="B5" t="s">
+        <v>96</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="D5" t="s">
+        <v>62</v>
+      </c>
+      <c r="E5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="G5" t="s">
+        <v>20</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="85.5" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>92</v>
+      </c>
+      <c r="B6" t="s">
+        <v>78</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="D6" t="s">
+        <v>62</v>
+      </c>
+      <c r="E6" t="s">
+        <v>16</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="G6" t="s">
+        <v>20</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="18.375" customWidth="1"/>
+    <col min="2" max="2" width="19.875" customWidth="1"/>
+    <col min="3" max="3" width="22.375" customWidth="1"/>
+    <col min="4" max="4" width="30" customWidth="1"/>
+    <col min="5" max="5" width="8.875" customWidth="1"/>
+    <col min="6" max="6" width="41.5" customWidth="1"/>
+    <col min="8" max="8" width="20.125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>61</v>
+      </c>
+      <c r="E1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I1" t="s">
+        <v>4</v>
+      </c>
+      <c r="J1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>103</v>
+      </c>
+      <c r="B2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="D2" t="s">
+        <v>62</v>
+      </c>
+      <c r="E2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F2" t="s">
+        <v>81</v>
+      </c>
+      <c r="G2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>104</v>
+      </c>
+      <c r="B3" t="s">
+        <v>99</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="D3" t="s">
+        <v>62</v>
+      </c>
+      <c r="E3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="G3" t="s">
+        <v>20</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>105</v>
+      </c>
+      <c r="B4" t="s">
+        <v>87</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="D4" t="s">
+        <v>62</v>
+      </c>
+      <c r="E4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="G4" t="s">
+        <v>20</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="99.75" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>106</v>
+      </c>
+      <c r="B5" t="s">
+        <v>102</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="D5" t="s">
+        <v>62</v>
+      </c>
+      <c r="E5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="G5" t="s">
+        <v>20</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>107</v>
+      </c>
+      <c r="B6" t="s">
+        <v>110</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="D6" t="s">
+        <v>62</v>
+      </c>
+      <c r="E6" t="s">
+        <v>16</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="G6" t="s">
+        <v>20</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>108</v>
+      </c>
+      <c r="B7" t="s">
+        <v>113</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="D7" t="s">
+        <v>62</v>
+      </c>
+      <c r="E7" t="s">
+        <v>16</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="G7" t="s">
+        <v>20</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>109</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Wm_Api/caseData/ApiInfo.xlsx
+++ b/Wm_Api/caseData/ApiInfo.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="114">
   <si>
     <t>CaseName</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -453,9 +453,6 @@
   </si>
   <si>
     <t>TPYOrder_006</t>
-  </si>
-  <si>
-    <t>TPYOrder_007</t>
   </si>
   <si>
     <t>订单--列表</t>
@@ -1525,7 +1522,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>89</v>
       </c>
@@ -1638,10 +1635,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J8"/>
+  <dimension ref="A1:J7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="A8" sqref="A8:XFD8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1796,10 +1793,10 @@
         <v>107</v>
       </c>
       <c r="B6" t="s">
+        <v>109</v>
+      </c>
+      <c r="C6" s="2" t="s">
         <v>110</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>111</v>
       </c>
       <c r="D6" t="s">
         <v>62</v>
@@ -1822,30 +1819,25 @@
         <v>108</v>
       </c>
       <c r="B7" t="s">
+        <v>112</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="D7" t="s">
+        <v>62</v>
+      </c>
+      <c r="E7" t="s">
+        <v>16</v>
+      </c>
+      <c r="F7" s="1" t="s">
         <v>113</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="D7" t="s">
-        <v>62</v>
-      </c>
-      <c r="E7" t="s">
-        <v>16</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>114</v>
       </c>
       <c r="G7" t="s">
         <v>20</v>
       </c>
       <c r="H7" s="1" t="s">
         <v>57</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>109</v>
       </c>
     </row>
   </sheetData>

--- a/Wm_Api/caseData/ApiInfo.xlsx
+++ b/Wm_Api/caseData/ApiInfo.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12120" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12120" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Login" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="114">
   <si>
     <t>CaseName</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -299,12 +299,6 @@
     <t>商品详情</t>
   </si>
   <si>
-    <t>{
- "itemId":638541
-}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>/v1/customer/list</t>
   </si>
   <si>
@@ -322,15 +316,6 @@
   </si>
   <si>
     <t>购物车--添加</t>
-  </si>
-  <si>
-    <t>{
- "itemId":638541,
- "price":1607,
- "quantity":2,
- "customerId":4282
-}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>/v1/cart/list</t>
@@ -383,14 +368,6 @@
     <t>{
   "customerId":4282,
   "cartIds":" "}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-  "id":" ",
-  "price": 1607,
-  "quantity":2
-}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -473,6 +450,29 @@
   <si>
     <t>{
   "orderId":" "
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+ "itemId":638555
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+ "itemId":638555,
+ "price":1000,
+ "quantity":1,
+ "customerId":4282
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+  "id":" ",
+  "price": 1000,
+  "quantity":2
 }</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1216,11 +1216,12 @@
   <dimension ref="A1:J8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
+    <col min="1" max="1" width="20.25" customWidth="1"/>
     <col min="2" max="2" width="19.75" customWidth="1"/>
     <col min="3" max="3" width="27" customWidth="1"/>
     <col min="4" max="4" width="52.875" customWidth="1"/>
@@ -1282,6 +1283,9 @@
       <c r="F2" s="1" t="s">
         <v>58</v>
       </c>
+      <c r="G2" t="s">
+        <v>20</v>
+      </c>
       <c r="H2" s="1" t="s">
         <v>57</v>
       </c>
@@ -1352,7 +1356,7 @@
         <v>16</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>72</v>
+        <v>111</v>
       </c>
       <c r="G5" t="s">
         <v>20</v>
@@ -1366,10 +1370,10 @@
         <v>66</v>
       </c>
       <c r="B6" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D6" t="s">
         <v>62</v>
@@ -1392,10 +1396,10 @@
         <v>67</v>
       </c>
       <c r="B7" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D7" t="s">
         <v>62</v>
@@ -1413,31 +1417,10 @@
         <v>57</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="85.5" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>88</v>
-      </c>
-      <c r="B8" t="s">
-        <v>78</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="D8" t="s">
-        <v>62</v>
-      </c>
-      <c r="E8" t="s">
-        <v>16</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="G8" t="s">
-        <v>20</v>
-      </c>
-      <c r="H8" s="1" t="s">
-        <v>57</v>
-      </c>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="C8" s="2"/>
+      <c r="F8" s="1"/>
+      <c r="H8" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -1450,8 +1433,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:XFD3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1498,13 +1481,13 @@
     </row>
     <row r="2" spans="1:10" ht="85.5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D2" t="s">
         <v>62</v>
@@ -1513,7 +1496,7 @@
         <v>16</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>79</v>
+        <v>112</v>
       </c>
       <c r="G2" t="s">
         <v>20</v>
@@ -1524,13 +1507,13 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B3" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D3" t="s">
         <v>62</v>
@@ -1539,7 +1522,7 @@
         <v>16</v>
       </c>
       <c r="F3" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="G3" t="s">
         <v>20</v>
@@ -1550,13 +1533,13 @@
     </row>
     <row r="4" spans="1:10" ht="71.25" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B4" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D4" t="s">
         <v>62</v>
@@ -1565,7 +1548,7 @@
         <v>16</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>94</v>
+        <v>113</v>
       </c>
       <c r="G4" t="s">
         <v>20</v>
@@ -1576,13 +1559,13 @@
     </row>
     <row r="5" spans="1:10" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B5" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="D5" t="s">
         <v>62</v>
@@ -1591,7 +1574,7 @@
         <v>16</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="G5" t="s">
         <v>20</v>
@@ -1602,13 +1585,13 @@
     </row>
     <row r="6" spans="1:10" ht="85.5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B6" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D6" t="s">
         <v>62</v>
@@ -1617,7 +1600,7 @@
         <v>16</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>79</v>
+        <v>112</v>
       </c>
       <c r="G6" t="s">
         <v>20</v>
@@ -1637,7 +1620,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A8" sqref="A8:XFD8"/>
     </sheetView>
   </sheetViews>
@@ -1686,13 +1669,13 @@
     </row>
     <row r="2" spans="1:10" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="B2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D2" t="s">
         <v>62</v>
@@ -1701,7 +1684,7 @@
         <v>16</v>
       </c>
       <c r="F2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="G2" t="s">
         <v>20</v>
@@ -1712,13 +1695,13 @@
     </row>
     <row r="3" spans="1:10" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="B3" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D3" t="s">
         <v>62</v>
@@ -1727,7 +1710,7 @@
         <v>16</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="G3" t="s">
         <v>20</v>
@@ -1738,13 +1721,13 @@
     </row>
     <row r="4" spans="1:10" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="B4" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D4" t="s">
         <v>62</v>
@@ -1753,7 +1736,7 @@
         <v>16</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="G4" t="s">
         <v>20</v>
@@ -1764,13 +1747,13 @@
     </row>
     <row r="5" spans="1:10" ht="99.75" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="B5" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="D5" t="s">
         <v>62</v>
@@ -1779,7 +1762,7 @@
         <v>16</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="G5" t="s">
         <v>20</v>
@@ -1790,13 +1773,13 @@
     </row>
     <row r="6" spans="1:10" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
+        <v>104</v>
+      </c>
+      <c r="B6" t="s">
+        <v>106</v>
+      </c>
+      <c r="C6" s="2" t="s">
         <v>107</v>
-      </c>
-      <c r="B6" t="s">
-        <v>109</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>110</v>
       </c>
       <c r="D6" t="s">
         <v>62</v>
@@ -1816,14 +1799,14 @@
     </row>
     <row r="7" spans="1:10" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
+        <v>105</v>
+      </c>
+      <c r="B7" t="s">
+        <v>109</v>
+      </c>
+      <c r="C7" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="B7" t="s">
-        <v>112</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>111</v>
-      </c>
       <c r="D7" t="s">
         <v>62</v>
       </c>
@@ -1831,7 +1814,7 @@
         <v>16</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="G7" t="s">
         <v>20</v>
